--- a/Sicherheit/FMEA.xlsx
+++ b/Sicherheit/FMEA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\labor_mod_sim\Sicherheit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{141395BF-082E-43B4-833F-12026F6C13D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04191BC4-156B-4D04-B532-13984D0A8B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B037444-5546-4738-9121-1467F27761AD}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -102,13 +101,13 @@
     <t>Prüfung bei Inbetriebnahme</t>
   </si>
   <si>
-    <t>RCD, regelmäßige Prüfung nach DIN VDE 0105-100</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>Schaltkontakt festgeschweißt, mechanisches Blockieren</t>
+  </si>
+  <si>
+    <t>RCD, regelmäßige Prüfung nach DIN VDE 0100</t>
   </si>
 </sst>
 </file>
@@ -132,15 +131,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -148,11 +153,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -160,13 +180,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -486,7 +512,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,46 +532,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -557,21 +583,21 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>3</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>10</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>6</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="4">
         <f>E2*F2*G2</f>
         <v>180</v>
       </c>
@@ -581,17 +607,17 @@
       <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="4">
         <v>2</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="4">
         <f>F2</f>
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="4">
         <v>3</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="4">
         <f>K2*L2*M2</f>
         <v>60</v>
       </c>
@@ -609,40 +635,40 @@
       <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>4</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>9</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>1</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <f>E3*F3*G3</f>
         <v>36</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -654,36 +680,36 @@
       <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>10</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>9</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <f>E4*F4*G4</f>
         <v>270</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2">
+        <v>23</v>
+      </c>
+      <c r="K4" s="4">
         <v>3</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="4">
         <f>F4</f>
         <v>10</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="4">
         <v>2</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="4">
         <f>K4*L4*M4</f>
         <v>60</v>
       </c>

--- a/Sicherheit/FMEA.xlsx
+++ b/Sicherheit/FMEA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\labor_mod_sim\Sicherheit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04191BC4-156B-4D04-B532-13984D0A8B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C1131D-F079-42D6-BD4D-34BEBB739BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B037444-5546-4738-9121-1467F27761AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>Fehler Art</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Körperschluss</t>
   </si>
   <si>
-    <t>Eingeklemmte Leitung oder beschädigte Isolation</t>
-  </si>
-  <si>
     <t>Stromschlag bei Berührung</t>
   </si>
   <si>
@@ -108,6 +105,36 @@
   </si>
   <si>
     <t>RCD, regelmäßige Prüfung nach DIN VDE 0100</t>
+  </si>
+  <si>
+    <t>Kurzschluss</t>
+  </si>
+  <si>
+    <t>Eingeklemmte Leitung, beschädigte Isolierung</t>
+  </si>
+  <si>
+    <t>Ablesen der aktuellen Drehzahl nicht mehr möglich</t>
+  </si>
+  <si>
+    <t>Sichtprüfung</t>
+  </si>
+  <si>
+    <t>Display zeigt nichts an</t>
+  </si>
+  <si>
+    <t>Bohrspindel dreht sich nicht, Bohrspindel wir nicht abgebremst</t>
+  </si>
+  <si>
+    <t>Abnutzung, Überlastung</t>
+  </si>
+  <si>
+    <t>Regelmäßige Wartung</t>
+  </si>
+  <si>
+    <t>Keilriemen reißt</t>
+  </si>
+  <si>
+    <t>Kürzere Wartungsintervalle</t>
   </si>
 </sst>
 </file>
@@ -172,14 +199,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -193,6 +214,24 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -509,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E172CB-7B8A-4CF5-B88B-09D2B823096B}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,203 +571,454 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>10</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>6</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <f>E2*F2*G2</f>
         <v>180</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="2">
         <v>2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="2">
         <f>F2</f>
         <v>10</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="2">
         <v>3</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="2">
         <f>K2*L2*M2</f>
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>4</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>9</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <f>E3*F3*G3</f>
         <v>36</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>21</v>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>10</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>9</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <f>E4*F4*G4</f>
         <v>270</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="4">
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2">
         <v>3</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="2">
         <f>F4</f>
         <v>10</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="2">
         <v>2</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="2">
         <f>K4*L4*M4</f>
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+    <row r="5" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>5</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <f>E5*F5*G5</f>
+        <v>20</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>10</v>
+      </c>
+      <c r="G6" s="8">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <f>E6*F6*G6</f>
+        <v>100</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="8">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" ref="L5:L13" si="0">F6</f>
+        <v>10</v>
+      </c>
+      <c r="M6" s="8">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" ref="N5:N13" si="1">K6*L6*M6</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="2">
+        <f t="shared" ref="H5:H13" si="2">E7*F7*G7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sicherheit/FMEA.xlsx
+++ b/Sicherheit/FMEA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\labor_mod_sim\Sicherheit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C1131D-F079-42D6-BD4D-34BEBB739BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08B5AA6-3F44-45AD-A71D-CF7BB2BF4725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B037444-5546-4738-9121-1467F27761AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
   <si>
     <t>Fehler Art</t>
   </si>
@@ -135,6 +135,78 @@
   </si>
   <si>
     <t>Kürzere Wartungsintervalle</t>
+  </si>
+  <si>
+    <t>Korrosion</t>
+  </si>
+  <si>
+    <t>Rost in Bohrspindel</t>
+  </si>
+  <si>
+    <t>Kein Rundlauf mehr, Festklemmen des Bohrfutters</t>
+  </si>
+  <si>
+    <t>Am Ende jedes Arbeitstags einfetten</t>
+  </si>
+  <si>
+    <t>Am Ende jedes Arbeitswoche einfetten</t>
+  </si>
+  <si>
+    <t>Rost an der Säule</t>
+  </si>
+  <si>
+    <t>Festklemmen der Höhenverstellung des Bohrtisches, Schlechtes Aussehen</t>
+  </si>
+  <si>
+    <t>Korossion</t>
+  </si>
+  <si>
+    <t>Rost am Bohrtisch</t>
+  </si>
+  <si>
+    <t>Verklemmen der Nutesnteine, Unebenheiten, Schlechtes Aussehen</t>
+  </si>
+  <si>
+    <t>Rost am Anschlag</t>
+  </si>
+  <si>
+    <t>Festklemmen des Anschlags</t>
+  </si>
+  <si>
+    <t>Am Ende jedes Arbeitstags einfetten, Monatlich Rundlauf mit Messuhr überprüfen</t>
+  </si>
+  <si>
+    <t>Am Ende jedes Arbeitswoche einfetten, Monatlich Rundlauf mit Messuhr überprüfen</t>
+  </si>
+  <si>
+    <t>Defektes Lager der Hauptspindel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starke Lärmentwicklung, Leistungsverlust, kein Rundlauf mehr, Wärmeentwicklung </t>
+  </si>
+  <si>
+    <t>Drehzahlge-triebe klemmt</t>
+  </si>
+  <si>
+    <t>Drehzahl nur noch in zwei Abstufungen einstellbar</t>
+  </si>
+  <si>
+    <t>Abnutzung, Verschmutzung durch Fremdkörper</t>
+  </si>
+  <si>
+    <t>Drehzahlum-schalter defekt</t>
+  </si>
+  <si>
+    <t>Grobe Drehzahl nicht mehr umstellbar</t>
+  </si>
+  <si>
+    <t>Kabelbruch, Kurzschluss, mechanisches Blockieren</t>
+  </si>
+  <si>
+    <t>Drehrichtungs-umschalter defekt</t>
+  </si>
+  <si>
+    <t>Drehreichtung nicht mehr einstellbar</t>
   </si>
 </sst>
 </file>
@@ -199,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -218,9 +290,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -548,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E172CB-7B8A-4CF5-B88B-09D2B823096B}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,13 +629,12 @@
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="6" width="3.77734375" customWidth="1"/>
-    <col min="7" max="7" width="3.109375" customWidth="1"/>
+    <col min="5" max="7" width="3.77734375" customWidth="1"/>
     <col min="8" max="8" width="5.21875" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" customWidth="1"/>
     <col min="10" max="10" width="22.6640625" customWidth="1"/>
-    <col min="11" max="12" width="4.21875" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" customWidth="1"/>
+    <col min="11" max="12" width="3.88671875" customWidth="1"/>
+    <col min="13" max="13" width="3.77734375" customWidth="1"/>
     <col min="14" max="14" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -766,35 +834,35 @@
       <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="8">
-        <v>2</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7">
         <v>5</v>
       </c>
-      <c r="G5" s="8">
-        <v>2</v>
+      <c r="G5" s="7">
+        <v>1</v>
       </c>
       <c r="H5" s="2">
         <f>E5*F5*G5</f>
-        <v>20</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -811,13 +879,13 @@
       <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="8">
-        <v>2</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
         <v>10</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>5</v>
       </c>
       <c r="H6" s="2">
@@ -830,193 +898,513 @@
       <c r="J6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>2</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" ref="L5:L13" si="0">F6</f>
+        <f t="shared" ref="L6:L13" si="0">F6</f>
         <v>10</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <v>2</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" ref="N5:N13" si="1">K6*L6*M6</f>
+        <f t="shared" ref="N6:N13" si="1">K6*L6*M6</f>
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+    <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="7">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7">
+        <v>7</v>
+      </c>
+      <c r="G7" s="7">
+        <v>3</v>
+      </c>
       <c r="H7" s="2">
-        <f t="shared" ref="H5:H13" si="2">E7*F7*G7</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="8"/>
+        <f t="shared" ref="H7:H19" si="2">E7*F7*G7</f>
+        <v>147</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="7">
+        <v>3</v>
+      </c>
       <c r="L7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2</v>
+      </c>
       <c r="N7" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="7">
+        <v>7</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
       <c r="H8" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="7">
+        <v>3</v>
+      </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2</v>
+      </c>
       <c r="N8" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
       <c r="H9" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2</v>
+      </c>
       <c r="L9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="M9" s="7">
+        <v>2</v>
+      </c>
       <c r="N9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="7">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7">
+        <v>3</v>
+      </c>
+      <c r="G10" s="7">
+        <v>3</v>
+      </c>
       <c r="H10" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="7">
+        <v>3</v>
+      </c>
       <c r="L10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="M10" s="7">
+        <v>3</v>
+      </c>
       <c r="N10" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="7">
+        <v>5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>7</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
       <c r="H11" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="7">
+        <v>3</v>
+      </c>
       <c r="L11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
       <c r="N11" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3</v>
+      </c>
+      <c r="F12" s="7">
+        <v>8</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
       <c r="H12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>8</v>
+      </c>
+      <c r="G13" s="7">
+        <v>3</v>
+      </c>
       <c r="H13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="2">
-        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>7</v>
+      </c>
+      <c r="G14" s="7">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="2">
+        <f t="shared" ref="L15:L19" si="3">F15</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="2">
+        <f t="shared" ref="N15:N19" si="4">K15*L15*M15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c r="N19" s="2">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>

--- a/Sicherheit/FMEA.xlsx
+++ b/Sicherheit/FMEA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\labor_mod_sim\Sicherheit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08B5AA6-3F44-45AD-A71D-CF7BB2BF4725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B587AB21-D71F-4F97-BCCA-D29CF2F3CA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B037444-5546-4738-9121-1467F27761AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>Fehler Art</t>
   </si>
@@ -107,9 +107,6 @@
     <t>RCD, regelmäßige Prüfung nach DIN VDE 0100</t>
   </si>
   <si>
-    <t>Kurzschluss</t>
-  </si>
-  <si>
     <t>Eingeklemmte Leitung, beschädigte Isolierung</t>
   </si>
   <si>
@@ -207,6 +204,114 @@
   </si>
   <si>
     <t>Drehreichtung nicht mehr einstellbar</t>
+  </si>
+  <si>
+    <t>Anschalter defekt</t>
+  </si>
+  <si>
+    <t>Ausschalter defekt</t>
+  </si>
+  <si>
+    <t>Maschine startet nicht oder geht von allein an</t>
+  </si>
+  <si>
+    <t>Kurzschluss, Kabelbruch</t>
+  </si>
+  <si>
+    <t>Maschine geht nicht aus oder schaltet dauerhaft aus</t>
+  </si>
+  <si>
+    <t>Funktionstest vor jeder Benutzung</t>
+  </si>
+  <si>
+    <t>Motor defekt</t>
+  </si>
+  <si>
+    <t>Überlastung, Überhitzung, Kurzschluss</t>
+  </si>
+  <si>
+    <t>Maschine dreht sich nicht</t>
+  </si>
+  <si>
+    <t>Motor beschädigt</t>
+  </si>
+  <si>
+    <t>Maschine dreht sich zu langsam oder unrund, Lärmentwicklung</t>
+  </si>
+  <si>
+    <t>Kabelbruch, fehlerhaft angeschlossen, eine defekte Wicklung</t>
+  </si>
+  <si>
+    <t>Hauptsicherung</t>
+  </si>
+  <si>
+    <t>Motorschutzschalter</t>
+  </si>
+  <si>
+    <t>Funktionsprüfung, regelmäßige Wartung</t>
+  </si>
+  <si>
+    <t>Aufwickeln von langen Haaren, Kleidungs-stücken und Schmuck</t>
+  </si>
+  <si>
+    <t>Fahrlässigkeit/ Bequemlichkeit des Benutzers</t>
+  </si>
+  <si>
+    <t>Eigenständige Kontrolle des Bedieners</t>
+  </si>
+  <si>
+    <t>Spanflug</t>
+  </si>
+  <si>
+    <t>Herumschla-gende Werkstücke</t>
+  </si>
+  <si>
+    <t>Lärm</t>
+  </si>
+  <si>
+    <t>Konatkt mit Bohrölen oder Kühlschmier-stoffen</t>
+  </si>
+  <si>
+    <t>Ätzung der Haut oder Schleimhäute in Auge</t>
+  </si>
+  <si>
+    <t>Leichte Verbrennung, Schnittverletz-ungen, Augenverletzungen</t>
+  </si>
+  <si>
+    <t>Schädigung des Trommelfells</t>
+  </si>
+  <si>
+    <t>Handverletzungen, Schürfwunden, Schnittverletz-ungen</t>
+  </si>
+  <si>
+    <t>Abtrennung von Gliedmaßen, Fleischwunden, Frakturen</t>
+  </si>
+  <si>
+    <t>Hinweisschild an Maschine anbringen</t>
+  </si>
+  <si>
+    <t>Unsachgemäße Benutzung, Fahrlässigkeit/ Bequemlichkeit des Benutzers</t>
+  </si>
+  <si>
+    <t>Unsachgemäße Benutzung, falsches oder kein Einspannen des Werkstücks</t>
+  </si>
+  <si>
+    <t>Spanfreiheit vor Einspannen herstellen</t>
+  </si>
+  <si>
+    <t>Hinweisschild für Ohrschützer an Maschine anbringen</t>
+  </si>
+  <si>
+    <t>Hinweisschild für Schutzbrille an Maschine anbringen, Schutzglas mit Endschalter montieren</t>
+  </si>
+  <si>
+    <t>Hinweischild für Schutzbrille an Maschine anbringen</t>
+  </si>
+  <si>
+    <t>Rote Lampe für aktiven Not-Aus einbauen</t>
+  </si>
+  <si>
+    <t>Grüne Lampe für Anschalter einbauen</t>
   </si>
 </sst>
 </file>
@@ -271,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -301,6 +406,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -617,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E172CB-7B8A-4CF5-B88B-09D2B823096B}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,11 +833,11 @@
         <v>10</v>
       </c>
       <c r="M2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2" s="2">
         <f>K2*L2*M2</f>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
@@ -749,103 +860,102 @@
         <v>9</v>
       </c>
       <c r="G3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="2">
         <f>E3*F3*G3</f>
+        <v>72</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4</v>
+      </c>
+      <c r="L3" s="2">
+        <v>9</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <f>K3*L3*M3</f>
         <v>36</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="4" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
+      <c r="A4" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>8</v>
+      </c>
+      <c r="G4" s="7">
+        <v>3</v>
       </c>
       <c r="H4" s="2">
         <f>E4*F4*G4</f>
-        <v>270</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="2">
-        <v>3</v>
-      </c>
-      <c r="L4" s="2">
-        <f>F4</f>
-        <v>10</v>
-      </c>
-      <c r="M4" s="2">
-        <v>2</v>
-      </c>
-      <c r="N4" s="2">
-        <f>K4*L4*M4</f>
-        <v>60</v>
+        <v>48</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E5" s="7">
         <v>2</v>
       </c>
       <c r="F5" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2">
         <f>E5*F5*G5</f>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>20</v>
@@ -868,16 +978,16 @@
     </row>
     <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E6" s="7">
         <v>2</v>
@@ -886,526 +996,953 @@
         <v>10</v>
       </c>
       <c r="G6" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2">
         <f>E6*F6*G6</f>
-        <v>100</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="7">
-        <v>2</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" ref="L6:L13" si="0">F6</f>
+        <v>40</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="11">
+        <v>2</v>
+      </c>
+      <c r="L6" s="12">
         <v>10</v>
       </c>
-      <c r="M6" s="7">
-        <v>2</v>
-      </c>
-      <c r="N6" s="2">
-        <f t="shared" ref="N6:N13" si="1">K6*L6*M6</f>
-        <v>40</v>
+      <c r="M6" s="11">
+        <v>1</v>
+      </c>
+      <c r="N6" s="12">
+        <f>K6*L6*M6</f>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <f>E7*F7*G7</f>
+        <v>80</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2">
+        <f>F7</f>
+        <v>10</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <f>K7*L7*M7</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7">
-        <v>7</v>
-      </c>
-      <c r="G7" s="7">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" ref="H7:H19" si="2">E7*F7*G7</f>
-        <v>147</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="7">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M7" s="7">
-        <v>2</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="7">
-        <v>7</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="7">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="2"/>
+      <c r="J9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7">
+        <v>9</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <f>E10*F10*G10</f>
+        <v>72</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <f>F10</f>
+        <v>9</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="2">
+        <f>K10*L10*M10</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="7">
-        <v>3</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M8" s="7">
-        <v>2</v>
-      </c>
-      <c r="N8" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="7">
-        <v>8</v>
-      </c>
-      <c r="F9" s="7">
-        <v>5</v>
-      </c>
-      <c r="G9" s="7">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="7">
-        <v>2</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M9" s="7">
-        <v>2</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="7">
-        <v>6</v>
-      </c>
-      <c r="F10" s="7">
-        <v>3</v>
-      </c>
-      <c r="G10" s="7">
-        <v>3</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="7">
-        <v>3</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M10" s="7">
-        <v>3</v>
-      </c>
-      <c r="N10" s="2">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E11" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="7">
         <v>7</v>
       </c>
       <c r="G11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="7">
-        <v>3</v>
+        <f>E11*F11*G11</f>
+        <v>63</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="11">
+        <v>2</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="0"/>
+        <f>F11</f>
         <v>7</v>
       </c>
-      <c r="M11" s="7">
-        <v>2</v>
+      <c r="M11" s="11">
+        <v>3</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" si="1"/>
+        <f>K11*L11*M11</f>
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>49</v>
+      <c r="A12" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="7">
-        <v>3</v>
-      </c>
-      <c r="F12" s="7">
-        <v>8</v>
-      </c>
-      <c r="G12" s="7">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <v>9</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>20</v>
+        <f>E12*F12*G12</f>
+        <v>270</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2">
+        <f>F12</f>
+        <v>10</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2</v>
+      </c>
+      <c r="N12" s="2">
+        <f>K12*L12*M12</f>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>5</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <f>E13*F13*G13</f>
+        <v>10</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="7">
+        <v>8</v>
+      </c>
+      <c r="F27" s="7">
+        <v>9</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <f>E27*F27*G27</f>
+        <v>72</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="12">
+        <f>F27</f>
+        <v>9</v>
+      </c>
+      <c r="M27" s="11"/>
+      <c r="N27" s="2">
+        <f>K27*L27*M27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="7">
+        <v>3</v>
+      </c>
+      <c r="F30" s="7">
+        <v>10</v>
+      </c>
+      <c r="G30" s="7">
+        <v>3</v>
+      </c>
+      <c r="H30" s="2">
+        <f>E30*F30*G30</f>
+        <v>90</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K30" s="11">
+        <v>2</v>
+      </c>
+      <c r="L30" s="12">
+        <f>F30</f>
+        <v>10</v>
+      </c>
+      <c r="M30" s="11">
+        <v>2</v>
+      </c>
+      <c r="N30" s="2">
+        <f>K30*L30*M30</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="7">
+        <v>7</v>
+      </c>
+      <c r="F31" s="7">
+        <v>9</v>
+      </c>
+      <c r="G31" s="7">
+        <v>2</v>
+      </c>
+      <c r="H31" s="2">
+        <f>E31*F31*G31</f>
+        <v>126</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="11">
+        <v>2</v>
+      </c>
+      <c r="L31" s="12">
+        <f>F31</f>
+        <v>9</v>
+      </c>
+      <c r="M31" s="11">
+        <v>2</v>
+      </c>
+      <c r="N31" s="2">
+        <f>K31*L31*M31</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="7">
+        <v>4</v>
+      </c>
+      <c r="F32" s="7">
+        <v>9</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <f>E32*F32*G32</f>
+        <v>36</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" s="11">
+        <v>3</v>
+      </c>
+      <c r="L32" s="12">
+        <f>F32</f>
+        <v>9</v>
+      </c>
+      <c r="M32" s="11">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2">
+        <f>K32*L32*M32</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2</v>
+      </c>
+      <c r="F33" s="7">
+        <v>9</v>
+      </c>
+      <c r="G33" s="7">
+        <v>3</v>
+      </c>
+      <c r="H33" s="2">
+        <f>E33*F33*G33</f>
         <v>54</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="7">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="I33" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K33" s="11">
+        <v>2</v>
+      </c>
+      <c r="L33" s="12">
+        <f>F33</f>
+        <v>9</v>
+      </c>
+      <c r="M33" s="11">
+        <v>2</v>
+      </c>
+      <c r="N33" s="2">
+        <f>K33*L33*M33</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="7">
-        <v>3</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="2"/>
+      <c r="D48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="7">
+        <v>2</v>
+      </c>
+      <c r="F49" s="7">
+        <v>10</v>
+      </c>
+      <c r="G49" s="7">
+        <v>5</v>
+      </c>
+      <c r="H49" s="2">
+        <f>E49*F49*G49</f>
+        <v>100</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K49" s="7">
+        <v>2</v>
+      </c>
+      <c r="L49" s="2">
+        <f>F49</f>
+        <v>10</v>
+      </c>
+      <c r="M49" s="7">
+        <v>2</v>
+      </c>
+      <c r="N49" s="2">
+        <f>K49*L49*M49</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="7">
+        <v>7</v>
+      </c>
+      <c r="F50" s="7">
+        <v>7</v>
+      </c>
+      <c r="G50" s="7">
+        <v>3</v>
+      </c>
+      <c r="H50" s="2">
+        <f>E50*F50*G50</f>
+        <v>147</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K50" s="7">
+        <v>3</v>
+      </c>
+      <c r="L50" s="2">
+        <f>F50</f>
+        <v>7</v>
+      </c>
+      <c r="M50" s="7">
+        <v>2</v>
+      </c>
+      <c r="N50" s="2">
+        <f>K50*L50*M50</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="7">
+        <v>7</v>
+      </c>
+      <c r="F51" s="7">
+        <v>5</v>
+      </c>
+      <c r="G51" s="7">
+        <v>2</v>
+      </c>
+      <c r="H51" s="2">
+        <f>E51*F51*G51</f>
+        <v>70</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51" s="7">
+        <v>3</v>
+      </c>
+      <c r="L51" s="2">
+        <f>F51</f>
+        <v>5</v>
+      </c>
+      <c r="M51" s="7">
+        <v>2</v>
+      </c>
+      <c r="N51" s="2">
+        <f>K51*L51*M51</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="7">
+        <v>8</v>
+      </c>
+      <c r="F52" s="7">
+        <v>5</v>
+      </c>
+      <c r="G52" s="7">
+        <v>2</v>
+      </c>
+      <c r="H52" s="2">
+        <f>E52*F52*G52</f>
+        <v>80</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K52" s="7">
+        <v>2</v>
+      </c>
+      <c r="L52" s="2">
+        <f>F52</f>
+        <v>5</v>
+      </c>
+      <c r="M52" s="7">
+        <v>2</v>
+      </c>
+      <c r="N52" s="2">
+        <f>K52*L52*M52</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="7">
+        <v>6</v>
+      </c>
+      <c r="F53" s="7">
+        <v>3</v>
+      </c>
+      <c r="G53" s="7">
+        <v>3</v>
+      </c>
+      <c r="H53" s="2">
+        <f>E53*F53*G53</f>
+        <v>54</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K53" s="7">
+        <v>3</v>
+      </c>
+      <c r="L53" s="2">
+        <f>F53</f>
+        <v>3</v>
+      </c>
+      <c r="M53" s="7">
+        <v>3</v>
+      </c>
+      <c r="N53" s="2">
+        <f>K53*L53*M53</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="7">
+        <v>5</v>
+      </c>
+      <c r="F54" s="7">
+        <v>7</v>
+      </c>
+      <c r="G54" s="7">
+        <v>2</v>
+      </c>
+      <c r="H54" s="2">
+        <f>E54*F54*G54</f>
+        <v>70</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K54" s="7">
+        <v>3</v>
+      </c>
+      <c r="L54" s="2">
+        <f>F54</f>
+        <v>7</v>
+      </c>
+      <c r="M54" s="7">
+        <v>2</v>
+      </c>
+      <c r="N54" s="2">
+        <f>K54*L54*M54</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="7">
-        <v>2</v>
-      </c>
-      <c r="F14" s="7">
-        <v>7</v>
-      </c>
-      <c r="G14" s="7">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="2">
-        <f t="shared" ref="L15:L19" si="3">F15</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="2">
-        <f t="shared" ref="N15:N19" si="4">K15*L15*M15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="B55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="7">
+        <v>3</v>
+      </c>
+      <c r="F55" s="7">
+        <v>8</v>
+      </c>
+      <c r="G55" s="7">
+        <v>2</v>
+      </c>
+      <c r="H55" s="2">
+        <f>E55*F55*G55</f>
+        <v>48</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Sicherheit/FMEA.xlsx
+++ b/Sicherheit/FMEA.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\labor_mod_sim\Sicherheit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B587AB21-D71F-4F97-BCCA-D29CF2F3CA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF69123A-1B3B-4814-95D8-15E9024E9D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B037444-5546-4738-9121-1467F27761AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="121">
   <si>
     <t>Fehler Art</t>
   </si>
@@ -312,6 +313,93 @@
   </si>
   <si>
     <t>Grüne Lampe für Anschalter einbauen</t>
+  </si>
+  <si>
+    <t>Prozess</t>
+  </si>
+  <si>
+    <t>Übermaß</t>
+  </si>
+  <si>
+    <t>Zu hohes Spiel</t>
+  </si>
+  <si>
+    <t>Messung des Bohrdurchmesser</t>
+  </si>
+  <si>
+    <t>Rundlauf überprüfen, Bohrer nachschleifen, Auskraglänge verkleinern</t>
+  </si>
+  <si>
+    <t>Durchgangsloch bohren</t>
+  </si>
+  <si>
+    <t>Gratbildung am Bohrungsausgang</t>
+  </si>
+  <si>
+    <t>Zu hoher Vorschub, stumpfer Bohrer</t>
+  </si>
+  <si>
+    <t>Vorschub verringern, Bohrer nachschleifen</t>
+  </si>
+  <si>
+    <t>Schiefe Bohrung</t>
+  </si>
+  <si>
+    <t>Ausbruch der Bohrerspitze, Werkstück schief eingespannt</t>
+  </si>
+  <si>
+    <t>Führungsfase verkleinern, Spanfreiheit am Schraubstock überprüfen</t>
+  </si>
+  <si>
+    <t>Wellen stehen nicht ortogonal zu Öberfläche</t>
+  </si>
+  <si>
+    <t>Schlechte Oberflächengüte</t>
+  </si>
+  <si>
+    <t>Toleranzen werden nicht eingehalten, Vibrationen, Rattern</t>
+  </si>
+  <si>
+    <t>Stumpfer Bohrer, falsche Schnittwerte, zu hohe Auskraglänge</t>
+  </si>
+  <si>
+    <t>Kein Rundlauf, asymmetrischer Bohrer, zu hohe Auskraglänge</t>
+  </si>
+  <si>
+    <t>Bohrer nachschleifen Schnittwerte anpassen, , Auskraglänge verkleinern</t>
+  </si>
+  <si>
+    <t>Überhitzung</t>
+  </si>
+  <si>
+    <t>Hoher Verschleiß des Bohrers, Beschädigung des Werkstücks</t>
+  </si>
+  <si>
+    <t>Stumpfer Bohrer, falsche Schnittwerte, zu hohe Auskraglänge, unpassendes Bohrwerkzeug, zu geringe Kühlung</t>
+  </si>
+  <si>
+    <t>Sichtprüfung mit Winkel</t>
+  </si>
+  <si>
+    <t>Bohrer nachschleifen Schnittwerte anpassen, , Auskraglänge verkleinern, Kühlschmiermittelzufuhr erhöhen</t>
+  </si>
+  <si>
+    <t>Bohrung passt nicht zu anderen Bauteilen</t>
+  </si>
+  <si>
+    <t>Falsche Positionierung</t>
+  </si>
+  <si>
+    <t>Messung der Bohrungsposition</t>
+  </si>
+  <si>
+    <t>Führungsfase verkleinern, Bohrer nachschleifen, größer Zentrieren</t>
+  </si>
+  <si>
+    <t>Ausbruch der Bohrerspitze, zu kleine Zentrierung, Schraubstock ungenügend fixiert</t>
+  </si>
+  <si>
+    <t>Schlechtes Aussehen, liegt nicht plan an</t>
   </si>
 </sst>
 </file>
@@ -335,7 +423,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,8 +436,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -372,11 +466,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -408,11 +515,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E172CB-7B8A-4CF5-B88B-09D2B823096B}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,7 +926,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="2">
-        <f>E2*F2*G2</f>
+        <f t="shared" ref="H2:H7" si="0">E2*F2*G2</f>
         <v>180</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -863,7 +973,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="2">
-        <f>E3*F3*G3</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -909,7 +1019,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="2">
-        <f>E4*F4*G4</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -954,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="2">
-        <f>E5*F5*G5</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -999,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="2">
-        <f>E6*F6*G6</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1008,16 +1118,16 @@
       <c r="J6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K6" s="11">
-        <v>2</v>
-      </c>
-      <c r="L6" s="12">
+      <c r="K6" s="7">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2">
         <v>10</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="7">
         <v>1</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="2">
         <f>K6*L6*M6</f>
         <v>20</v>
       </c>
@@ -1045,7 +1155,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="2">
-        <f>E7*F7*G7</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1192,14 +1302,14 @@
       <c r="J11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="7">
         <v>2</v>
       </c>
       <c r="L11" s="2">
         <f>F11</f>
         <v>7</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="7">
         <v>3</v>
       </c>
       <c r="N11" s="2">
@@ -1227,11 +1337,11 @@
         <v>10</v>
       </c>
       <c r="G12" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" s="2">
         <f>E12*F12*G12</f>
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>22</v>
@@ -1331,12 +1441,12 @@
       <c r="J27" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="12">
+      <c r="K27" s="7"/>
+      <c r="L27" s="2">
         <f>F27</f>
         <v>9</v>
       </c>
-      <c r="M27" s="11"/>
+      <c r="M27" s="7"/>
       <c r="N27" s="2">
         <f>K27*L27*M27</f>
         <v>0</v>
@@ -1418,14 +1528,14 @@
       <c r="J30" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K30" s="11">
-        <v>2</v>
-      </c>
-      <c r="L30" s="12">
+      <c r="K30" s="7">
+        <v>2</v>
+      </c>
+      <c r="L30" s="2">
         <f>F30</f>
         <v>10</v>
       </c>
-      <c r="M30" s="11">
+      <c r="M30" s="7">
         <v>2</v>
       </c>
       <c r="N30" s="2">
@@ -1465,14 +1575,14 @@
       <c r="J31" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="K31" s="11">
-        <v>2</v>
-      </c>
-      <c r="L31" s="12">
+      <c r="K31" s="7">
+        <v>2</v>
+      </c>
+      <c r="L31" s="2">
         <f>F31</f>
         <v>9</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M31" s="7">
         <v>2</v>
       </c>
       <c r="N31" s="2">
@@ -1512,14 +1622,14 @@
       <c r="J32" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K32" s="11">
-        <v>3</v>
-      </c>
-      <c r="L32" s="12">
+      <c r="K32" s="7">
+        <v>3</v>
+      </c>
+      <c r="L32" s="2">
         <f>F32</f>
         <v>9</v>
       </c>
-      <c r="M32" s="11">
+      <c r="M32" s="7">
         <v>1</v>
       </c>
       <c r="N32" s="2">
@@ -1559,14 +1669,14 @@
       <c r="J33" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="K33" s="11">
-        <v>2</v>
-      </c>
-      <c r="L33" s="12">
+      <c r="K33" s="7">
+        <v>2</v>
+      </c>
+      <c r="L33" s="2">
         <f>F33</f>
         <v>9</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M33" s="7">
         <v>2</v>
       </c>
       <c r="N33" s="2">
@@ -1641,7 +1751,7 @@
         <v>5</v>
       </c>
       <c r="H49" s="2">
-        <f>E49*F49*G49</f>
+        <f t="shared" ref="H49:H55" si="1">E49*F49*G49</f>
         <v>100</v>
       </c>
       <c r="I49" s="6" t="s">
@@ -1654,14 +1764,14 @@
         <v>2</v>
       </c>
       <c r="L49" s="2">
-        <f>F49</f>
+        <f t="shared" ref="L49:L54" si="2">F49</f>
         <v>10</v>
       </c>
       <c r="M49" s="7">
         <v>2</v>
       </c>
       <c r="N49" s="2">
-        <f>K49*L49*M49</f>
+        <f t="shared" ref="N49:N54" si="3">K49*L49*M49</f>
         <v>40</v>
       </c>
     </row>
@@ -1688,7 +1798,7 @@
         <v>3</v>
       </c>
       <c r="H50" s="2">
-        <f>E50*F50*G50</f>
+        <f t="shared" si="1"/>
         <v>147</v>
       </c>
       <c r="I50" s="1" t="s">
@@ -1701,14 +1811,14 @@
         <v>3</v>
       </c>
       <c r="L50" s="2">
-        <f>F50</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="M50" s="7">
         <v>2</v>
       </c>
       <c r="N50" s="2">
-        <f>K50*L50*M50</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
@@ -1735,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="H51" s="2">
-        <f>E51*F51*G51</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I51" s="1" t="s">
@@ -1748,14 +1858,14 @@
         <v>3</v>
       </c>
       <c r="L51" s="2">
-        <f>F51</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M51" s="7">
         <v>2</v>
       </c>
       <c r="N51" s="2">
-        <f>K51*L51*M51</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
@@ -1782,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="H52" s="2">
-        <f>E52*F52*G52</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="I52" s="1" t="s">
@@ -1795,14 +1905,14 @@
         <v>2</v>
       </c>
       <c r="L52" s="2">
-        <f>F52</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M52" s="7">
         <v>2</v>
       </c>
       <c r="N52" s="2">
-        <f>K52*L52*M52</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -1829,7 +1939,7 @@
         <v>3</v>
       </c>
       <c r="H53" s="2">
-        <f>E53*F53*G53</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="I53" s="1" t="s">
@@ -1842,14 +1952,14 @@
         <v>3</v>
       </c>
       <c r="L53" s="2">
-        <f>F53</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M53" s="7">
         <v>3</v>
       </c>
       <c r="N53" s="2">
-        <f>K53*L53*M53</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
     </row>
@@ -1876,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="H54" s="2">
-        <f>E54*F54*G54</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I54" s="6" t="s">
@@ -1889,14 +1999,14 @@
         <v>3</v>
       </c>
       <c r="L54" s="2">
-        <f>F54</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="M54" s="7">
         <v>2</v>
       </c>
       <c r="N54" s="2">
-        <f>K54*L54*M54</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
@@ -1923,7 +2033,7 @@
         <v>2</v>
       </c>
       <c r="H55" s="2">
-        <f>E55*F55*G55</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="I55" s="8" t="s">
@@ -1944,9 +2054,529 @@
       <c r="N55" s="10" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="2"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="2"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389DA49A-9794-41A9-885F-4C0C7BD2ACAF}">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="8" width="3.77734375" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" customWidth="1"/>
+    <col min="11" max="13" width="3.77734375" customWidth="1"/>
+    <col min="14" max="14" width="5.109375" customWidth="1"/>
+    <col min="15" max="15" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <f>F2*G2*H2</f>
+        <v>56</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="7">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2">
+        <f>G2</f>
+        <v>7</v>
+      </c>
+      <c r="M2" s="7">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2">
+        <f>K2*L2*M2</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="7">
+        <v>8</v>
+      </c>
+      <c r="G3" s="7">
+        <v>4</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I7" si="0">F3*G3*H3</f>
+        <v>64</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="7">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L7" si="1">G3</f>
+        <v>4</v>
+      </c>
+      <c r="M3" s="7">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N7" si="2">K3*L3*M3</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>8</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M4" s="7">
+        <v>3</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M5" s="7">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7">
+        <v>5</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="7">
+        <v>8</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Sicherheit/FMEA.xlsx
+++ b/Sicherheit/FMEA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\labor_mod_sim\Sicherheit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF69123A-1B3B-4814-95D8-15E9024E9D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D85AB3E-9E19-486F-ACB4-42DB0EB3C58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B037444-5546-4738-9121-1467F27761AD}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>Display zeigt nichts an</t>
   </si>
   <si>
-    <t>Bohrspindel dreht sich nicht, Bohrspindel wir nicht abgebremst</t>
-  </si>
-  <si>
     <t>Abnutzung, Überlastung</t>
   </si>
   <si>
@@ -400,6 +397,9 @@
   </si>
   <si>
     <t>Schlechtes Aussehen, liegt nicht plan an</t>
+  </si>
+  <si>
+    <t>Bohrspindel dreht sich nicht, Bohrspindel wird nicht abgebremst</t>
   </si>
 </sst>
 </file>
@@ -840,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E172CB-7B8A-4CF5-B88B-09D2B823096B}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -977,10 +977,10 @@
         <v>72</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K3" s="2">
         <v>4</v>
@@ -998,13 +998,13 @@
     </row>
     <row r="4" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -1043,13 +1043,13 @@
     </row>
     <row r="5" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -1088,13 +1088,13 @@
     </row>
     <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -1113,10 +1113,10 @@
         <v>40</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K6" s="7">
         <v>2</v>
@@ -1134,13 +1134,13 @@
     </row>
     <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
@@ -1159,10 +1159,10 @@
         <v>80</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K7" s="7">
         <v>2</v>
@@ -1225,16 +1225,16 @@
     </row>
     <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="7">
         <v>4</v>
@@ -1250,10 +1250,10 @@
         <v>72</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K10" s="7">
         <v>1</v>
@@ -1272,16 +1272,16 @@
     </row>
     <row r="11" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="7">
         <v>3</v>
@@ -1297,10 +1297,10 @@
         <v>63</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11" s="7">
         <v>2</v>
@@ -1372,7 +1372,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>25</v>
@@ -1411,16 +1411,16 @@
     </row>
     <row r="27" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="7">
         <v>8</v>
@@ -1436,10 +1436,10 @@
         <v>72</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="2">
@@ -1498,16 +1498,16 @@
     </row>
     <row r="30" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E30" s="7">
         <v>3</v>
@@ -1523,10 +1523,10 @@
         <v>90</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K30" s="7">
         <v>2</v>
@@ -1545,16 +1545,16 @@
     </row>
     <row r="31" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" s="7">
         <v>7</v>
@@ -1570,10 +1570,10 @@
         <v>126</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K31" s="7">
         <v>2</v>
@@ -1592,16 +1592,16 @@
     </row>
     <row r="32" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E32" s="7">
         <v>4</v>
@@ -1617,10 +1617,10 @@
         <v>36</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K32" s="7">
         <v>3</v>
@@ -1639,16 +1639,16 @@
     </row>
     <row r="33" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33" s="7">
         <v>2</v>
@@ -1664,10 +1664,10 @@
         <v>54</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K33" s="7">
         <v>2</v>
@@ -1730,16 +1730,16 @@
     </row>
     <row r="49" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E49" s="7">
         <v>2</v>
@@ -1755,10 +1755,10 @@
         <v>100</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K49" s="7">
         <v>2</v>
@@ -1777,13 +1777,13 @@
     </row>
     <row r="50" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>25</v>
@@ -1802,10 +1802,10 @@
         <v>147</v>
       </c>
       <c r="I50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="K50" s="7">
         <v>3</v>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="51" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>25</v>
@@ -1849,10 +1849,10 @@
         <v>70</v>
       </c>
       <c r="I51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J51" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="K51" s="7">
         <v>3</v>
@@ -1871,13 +1871,13 @@
     </row>
     <row r="52" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>25</v>
@@ -1896,10 +1896,10 @@
         <v>80</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K52" s="7">
         <v>2</v>
@@ -1918,13 +1918,13 @@
     </row>
     <row r="53" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>25</v>
@@ -1943,10 +1943,10 @@
         <v>54</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K53" s="7">
         <v>3</v>
@@ -1965,16 +1965,16 @@
     </row>
     <row r="54" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E54" s="7">
         <v>5</v>
@@ -1990,10 +1990,10 @@
         <v>70</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K54" s="7">
         <v>3</v>
@@ -2012,16 +2012,16 @@
     </row>
     <row r="55" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D55" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E55" s="7">
         <v>3</v>
@@ -2242,7 +2242,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2286,19 +2286,19 @@
     </row>
     <row r="2" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="F2" s="7">
         <v>4</v>
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K2" s="7">
         <v>2</v>
@@ -2334,13 +2334,13 @@
     <row r="3" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>25</v>
@@ -2359,7 +2359,7 @@
         <v>64</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K3" s="7">
         <v>6</v>
@@ -2379,16 +2379,16 @@
     <row r="4" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" s="7">
         <v>2</v>
@@ -2404,7 +2404,7 @@
         <v>48</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K4" s="7">
         <v>1</v>
@@ -2424,13 +2424,13 @@
     <row r="5" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
@@ -2449,7 +2449,7 @@
         <v>80</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K5" s="7">
         <v>2</v>
@@ -2469,13 +2469,13 @@
     <row r="6" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>25</v>
@@ -2494,7 +2494,7 @@
         <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K6" s="7">
         <v>1</v>
@@ -2514,16 +2514,16 @@
     <row r="7" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="F7" s="7">
         <v>4</v>
@@ -2539,7 +2539,7 @@
         <v>64</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K7" s="7">
         <v>2</v>

--- a/Sicherheit/FMEA.xlsx
+++ b/Sicherheit/FMEA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\labor_mod_sim\Sicherheit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D85AB3E-9E19-486F-ACB4-42DB0EB3C58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ACED71-CC06-455B-94CB-DFED1C40DE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B037444-5546-4738-9121-1467F27761AD}"/>
   </bookViews>

--- a/Sicherheit/FMEA.xlsx
+++ b/Sicherheit/FMEA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Documents\labor_mod_sim\Sicherheit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgrosse/Documents/Repos/Labor Modellbildung/Sicherheit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ACED71-CC06-455B-94CB-DFED1C40DE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B537075-4ED3-304E-B6FE-E2DD81695BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B037444-5546-4738-9121-1467F27761AD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="26620" windowHeight="15360" xr2:uid="{0B037444-5546-4738-9121-1467F27761AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,18 +144,12 @@
     <t>Am Ende jedes Arbeitstags einfetten</t>
   </si>
   <si>
-    <t>Am Ende jedes Arbeitswoche einfetten</t>
-  </si>
-  <si>
     <t>Rost an der Säule</t>
   </si>
   <si>
     <t>Festklemmen der Höhenverstellung des Bohrtisches, Schlechtes Aussehen</t>
   </si>
   <si>
-    <t>Korossion</t>
-  </si>
-  <si>
     <t>Rost am Bohrtisch</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>Am Ende jedes Arbeitstags einfetten, Monatlich Rundlauf mit Messuhr überprüfen</t>
   </si>
   <si>
-    <t>Am Ende jedes Arbeitswoche einfetten, Monatlich Rundlauf mit Messuhr überprüfen</t>
-  </si>
-  <si>
     <t>Defektes Lager der Hauptspindel</t>
   </si>
   <si>
@@ -400,6 +391,15 @@
   </si>
   <si>
     <t>Bohrspindel dreht sich nicht, Bohrspindel wird nicht abgebremst</t>
+  </si>
+  <si>
+    <t>Korrossion</t>
+  </si>
+  <si>
+    <t>Am Ende jeder Arbeitswoche einfetten, Monatlich Rundlauf mit Messuhr überprüfen</t>
+  </si>
+  <si>
+    <t>Am Ende jeder Arbeitswoche einfetten</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -542,7 +542,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -840,26 +840,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E172CB-7B8A-4CF5-B88B-09D2B823096B}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
       <selection activeCell="A48" sqref="A48:N55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="7" width="3.77734375" customWidth="1"/>
-    <col min="8" max="8" width="5.21875" customWidth="1"/>
+    <col min="5" max="7" width="3.83203125" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" customWidth="1"/>
     <col min="10" max="10" width="22.6640625" customWidth="1"/>
-    <col min="11" max="12" width="3.88671875" customWidth="1"/>
-    <col min="13" max="13" width="3.77734375" customWidth="1"/>
+    <col min="11" max="13" width="3.83203125" customWidth="1"/>
     <col min="14" max="14" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -903,7 +902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -950,7 +949,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -977,10 +976,10 @@
         <v>72</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K3" s="2">
         <v>4</v>
@@ -996,15 +995,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -1041,15 +1040,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -1086,15 +1085,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -1113,10 +1112,10 @@
         <v>40</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K6" s="7">
         <v>2</v>
@@ -1132,15 +1131,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
@@ -1159,10 +1158,10 @@
         <v>80</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K7" s="7">
         <v>2</v>
@@ -1179,7 +1178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -1223,18 +1222,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E10" s="7">
         <v>4</v>
@@ -1250,10 +1249,10 @@
         <v>72</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7">
         <v>1</v>
@@ -1270,18 +1269,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E11" s="7">
         <v>3</v>
@@ -1317,7 +1316,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1364,7 +1363,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1372,7 +1371,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>25</v>
@@ -1409,18 +1408,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E27" s="7">
         <v>8</v>
@@ -1436,10 +1435,10 @@
         <v>72</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="2">
@@ -1452,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
@@ -1496,18 +1495,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="96" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E30" s="7">
         <v>3</v>
@@ -1523,10 +1522,10 @@
         <v>90</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K30" s="7">
         <v>2</v>
@@ -1543,18 +1542,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E31" s="7">
         <v>7</v>
@@ -1570,10 +1569,10 @@
         <v>126</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K31" s="7">
         <v>2</v>
@@ -1590,18 +1589,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E32" s="7">
         <v>4</v>
@@ -1617,10 +1616,10 @@
         <v>36</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K32" s="7">
         <v>3</v>
@@ -1637,18 +1636,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E33" s="7">
         <v>2</v>
@@ -1664,10 +1663,10 @@
         <v>54</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K33" s="7">
         <v>2</v>
@@ -1684,7 +1683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>0</v>
       </c>
@@ -1728,12 +1727,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>27</v>
@@ -1775,7 +1774,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,10 +1801,10 @@
         <v>147</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="K50" s="7">
         <v>3</v>
@@ -1822,15 +1821,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>25</v>
@@ -1852,7 +1851,7 @@
         <v>34</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="K51" s="7">
         <v>3</v>
@@ -1869,12 +1868,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>31</v>
@@ -1916,12 +1915,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>31</v>
@@ -1943,10 +1942,10 @@
         <v>54</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="K53" s="7">
         <v>3</v>
@@ -1963,12 +1962,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>27</v>
@@ -2010,15 +2009,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>28</v>
@@ -2055,7 +2054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>0</v>
       </c>
@@ -2099,7 +2098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2115,7 +2114,7 @@
       <c r="M59" s="7"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2131,7 +2130,7 @@
       <c r="M60" s="7"/>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2147,7 +2146,7 @@
       <c r="M61" s="7"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2163,7 +2162,7 @@
       <c r="M62" s="7"/>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2179,7 +2178,7 @@
       <c r="M63" s="7"/>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2195,7 +2194,7 @@
       <c r="M64" s="7"/>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2225,24 +2224,24 @@
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="8" width="3.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="8" width="3.83203125" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="22.77734375" customWidth="1"/>
-    <col min="11" max="13" width="3.77734375" customWidth="1"/>
-    <col min="14" max="14" width="5.109375" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
+    <col min="11" max="13" width="3.83203125" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" customWidth="1"/>
     <col min="15" max="15" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2284,21 +2283,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F2" s="7">
         <v>4</v>
@@ -2314,7 +2313,7 @@
         <v>56</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K2" s="7">
         <v>2</v>
@@ -2331,16 +2330,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>25</v>
@@ -2359,7 +2358,7 @@
         <v>64</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K3" s="7">
         <v>6</v>
@@ -2376,19 +2375,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F4" s="7">
         <v>2</v>
@@ -2404,7 +2403,7 @@
         <v>48</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K4" s="7">
         <v>1</v>
@@ -2421,16 +2420,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
@@ -2449,7 +2448,7 @@
         <v>80</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K5" s="7">
         <v>2</v>
@@ -2466,16 +2465,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>25</v>
@@ -2494,7 +2493,7 @@
         <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K6" s="7">
         <v>1</v>
@@ -2511,19 +2510,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F7" s="7">
         <v>4</v>
@@ -2539,7 +2538,7 @@
         <v>64</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K7" s="7">
         <v>2</v>
@@ -2556,7 +2555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
